--- a/gcp_BQ.xlsx
+++ b/gcp_BQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2625" windowWidth="14055" windowHeight="5385" tabRatio="753" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="2520" yWindow="2625" windowWidth="14055" windowHeight="5385" tabRatio="753" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="Primary_Skill" sheetId="8" r:id="rId8"/>
     <sheet name="Secondary_Skill" sheetId="9" r:id="rId9"/>
     <sheet name="Folder_Acronyms" sheetId="10" r:id="rId10"/>
+    <sheet name="online_editor" sheetId="11" r:id="rId11"/>
+    <sheet name="Pyhon_core_concept" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$A$1:$A$159</definedName>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="280">
   <si>
     <t>https://console.cloud.google.com/billing/01B44E-1BA57F-FCE887/reports;timeRange=CUSTOM_RANGE;from=2022-10-01;to=2022-10-14?organizationId=0&amp;project=caramel-gate-365514</t>
   </si>
@@ -814,12 +816,102 @@
   <si>
     <t>https://towardsdatascience.com/using-openai-and-python-to-enhance-your-resume-a-step-by-step-guide-e2c1a359e194</t>
   </si>
+  <si>
+    <t>https://www.programiz.com/</t>
+  </si>
+  <si>
+    <t>https://www.programiz.com/dsa</t>
+  </si>
+  <si>
+    <t>GCP CLI commands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Modelling </t>
+  </si>
+  <si>
+    <t>https://www.guru99.com/data-modeling-interview-questions-answers.html</t>
+  </si>
+  <si>
+    <t>PayPal data migration from TD to BQ</t>
+  </si>
+  <si>
+    <t>https://medium.com/paypal-tech/400-days-paypals-data-warehouse-migration-to-google-bigquery-8c3b845eb6c9</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/bigquery/docs/batch-sql-translator</t>
+  </si>
+  <si>
+    <t>TD_BQ_syntax_wise comparison</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/bigquery/docs/migration/teradata-sql</t>
+  </si>
+  <si>
+    <t>Indexing_set and_multiset _preferances</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/bigquery/docs/migration/teradata-sql#create_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data export from the BQ table </t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/bigquery/docs/reference/standard-sql/other-statements</t>
+  </si>
+  <si>
+    <t>MD_Queries</t>
+  </si>
+  <si>
+    <t>https://github.com/GoogleCloudPlatform/training-data-analyst/blob/master/courses/data-engineering/demos/information_schema.md</t>
+  </si>
+  <si>
+    <t>Md_Queries _meduim _referance</t>
+  </si>
+  <si>
+    <t>https://www.python-engineer.com/posts/progressbar/</t>
+  </si>
+  <si>
+    <t>https://lukasz-aszyk.medium.com/dbt-what-is-the-hype-about-and-why-you-should-use-it-f104c83647a4</t>
+  </si>
+  <si>
+    <t>https://levelup.gitconnected.com/how-to-deploy-a-kubernetes-dashboard-using-terraform-b7ff28867952</t>
+  </si>
+  <si>
+    <t>https://www.programiz.com/python-programming/property</t>
+  </si>
+  <si>
+    <t>http://localhost:8888/notebooks/Untitled25.ipynb?kernel_name=python3#</t>
+  </si>
+  <si>
+    <t>http://localhost:8888/notebooks/Untitled24.ipynb?kernel_name=python3#</t>
+  </si>
+  <si>
+    <t>http://localhost:8888/notebooks/Untitled23.ipynb?kernel_name=python3#</t>
+  </si>
+  <si>
+    <t>http://localhost:8888/notebooks/Untitled20.ipynb?kernel_name=python3#</t>
+  </si>
+  <si>
+    <t>http://localhost:8888/notebooks/Untitled21.ipynb?kernel_name=python3#</t>
+  </si>
+  <si>
+    <t>http://localhost:8888/notebooks/face_detection_with%20square%20mark_with_title_model_train_recognize.ipynb</t>
+  </si>
+  <si>
+    <t>https://www.programiz.com/python-programming/package</t>
+  </si>
+  <si>
+    <t>https://www.programiz.com/python-programming/main-function</t>
+  </si>
+  <si>
+    <t>https://www.programiz.com/python-programming/args-and-kwargs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,6 +925,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -868,7 +968,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -882,6 +982,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1295,7 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1307,6 +1408,101 @@
       </c>
       <c r="B1" t="s">
         <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3179,7 +3375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -3291,59 +3487,148 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="75.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="409.5">
+    <row r="3" spans="1:2" ht="75">
       <c r="A3" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="409.5">
+    <row r="4" spans="1:2" ht="75">
       <c r="A4" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>192</v>
       </c>
     </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="B11" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
+    <hyperlink ref="B12" r:id="rId4"/>
+    <hyperlink ref="B13" r:id="rId5" location="create_index"/>
+    <hyperlink ref="B14" r:id="rId6"/>
+    <hyperlink ref="B15" r:id="rId7"/>
+    <hyperlink ref="B16" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B25"/>
+  <dimension ref="A2:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3418,6 +3703,9 @@
       <c r="A11" t="s">
         <v>224</v>
       </c>
+      <c r="B11" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -3487,6 +3775,11 @@
     <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
